--- a/LR3/table_1_3.xlsx
+++ b/LR3/table_1_3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Университет\Информационные технологии\Лабораторная работа №3. Работа с табличным редактором\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{403FD32D-C50C-4384-91CF-533B84384A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098F994F-4398-46EA-A58F-685BC086B799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8472" yWindow="7248" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_3.xlsx
+++ b/LR3/table_1_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098F994F-4398-46EA-A58F-685BC086B799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07630A6E-B337-4099-979E-DCC349BE5B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/LR3/table_1_3.xlsx
+++ b/LR3/table_1_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Университет\Информационные технологии\Лабораторная работа №3. Работа с табличным редактором\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EE0663-A2EE-40C8-947A-AD050B0D9C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A1BF7B-E1E5-446B-B525-2623DD5DB596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
